--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_279.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_279.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,178 +488,190 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[('0:01:37.720000', '0:01:54.060000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:09.700000', '0:00:15.020000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(97.88, 108.98), (47.58, 50.04)]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(30.24, 38.5), (84.62, 91.74)]</t>
+          <t>[('0:03:46.020000', '0:04:01.060000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:18.660000', '0:00:21.840000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(36.04, 51.46)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(9.9, 34.68)]</t>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:08.080000', '0:00:24.940000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_35</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1252173913043478</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:7', 'C', 'C/7']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56)]</t>
+          <t>[('0:00:12.851927', '0:00:16.810929')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:21.440000', '0:00:24.060000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -663,133 +680,132 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76)]</t>
+          <t>[('0:01:38.700000', '0:01:58.800000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:32.520000', '0:00:47.400000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(77.72, 95.68)]</t>
+          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:08.080000', '0:00:24.940000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(10.12, 35.88)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(41.92, 59.04)]</t>
+          <t>[('0:00:13.660000', '0:00:17.900000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:10.240000', '0:00:21.020000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
@@ -798,407 +814,362 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A#:maj', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(43.18, 45.1)]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:01:02.280000', '0:01:04.320000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:03.100000', '0:01:10.340000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
+          <t>[['C:maj/E', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[['A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(3.78, 7.38)]</t>
+          <t>[('0:00:38.900000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:00:28.020000', '0:00:30.100000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.38, 142.38)]</t>
+          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.44, 126.44)]</t>
+          <t>[('0:00:07.600000', '0:00:13.860000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:02.980000', '0:00:06.700000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['F:maj', 'C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj'], ['A:7', 'D:min', 'C:7', 'F:maj', 'A:maj/C#', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[('0:00:00.220000', '0:00:20.820000'), ('0:00:55.840000', '0:01:17.800000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:01.820000', '0:00:20.520000'), ('0:00:55.140000', '0:01:15.900000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (74.96, 82.28)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82), (32.44, 34.8)]</t>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(5.36, 110.76)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(5.0, 114.06)]</t>
+          <t>[('0:00:00.220000', '0:00:21.940000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:01.640000', '0:00:23.800000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:min/G#', 'A#:min', 'F:min/G#'], ['F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(25.48, 32.58), (74.1, 80.04)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(97.76, 109.38), (43.68, 45.8)]</t>
+          <t>[('0:00:55.820000', '0:01:01.680000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:00.680000', '0:01:06.800000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[('0:00:42.240000', '0:01:30.860000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_121</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E', 'E/7', 'C#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(7.64, 14.0)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(10.501791, 15.122562)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
+          <t>[('0:00:47.860000', '0:01:35.840000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
